--- a/class_data.xlsx
+++ b/class_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3br7man\Projects\Comm Data Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3br7man\Projects\Class Data Project\Class-Data-Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C94279E-84AF-4781-870E-6D4AB6023303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D20354-B24A-44C0-8363-F6D56A4B5684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="comm_data" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="266">
-  <si>
-    <t>IDs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="265">
   <si>
     <t>Hours_taken</t>
   </si>
@@ -1760,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -1776,19 +1773,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6595,9 +6592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3FE821-9964-42FE-8211-896A06608E3B}">
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6608,13 +6603,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6622,10 +6617,10 @@
         <v>4830</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6633,10 +6628,10 @@
         <v>4831</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6644,10 +6639,10 @@
         <v>4832</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6655,10 +6650,10 @@
         <v>4833</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6666,10 +6661,10 @@
         <v>4834</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6677,10 +6672,10 @@
         <v>4835</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6688,10 +6683,10 @@
         <v>4836</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6699,10 +6694,10 @@
         <v>4837</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6710,10 +6705,10 @@
         <v>4838</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6721,10 +6716,10 @@
         <v>4839</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6732,10 +6727,10 @@
         <v>4840</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6743,10 +6738,10 @@
         <v>4841</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6754,10 +6749,10 @@
         <v>4842</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6765,10 +6760,10 @@
         <v>4843</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6776,10 +6771,10 @@
         <v>4844</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6787,10 +6782,10 @@
         <v>4845</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6798,10 +6793,10 @@
         <v>4846</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6809,10 +6804,10 @@
         <v>4847</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6820,10 +6815,10 @@
         <v>4848</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -6831,10 +6826,10 @@
         <v>4849</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -6842,10 +6837,10 @@
         <v>4850</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -6853,10 +6848,10 @@
         <v>4851</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6864,10 +6859,10 @@
         <v>4852</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6875,10 +6870,10 @@
         <v>4853</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -6886,10 +6881,10 @@
         <v>4854</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -6897,10 +6892,10 @@
         <v>4855</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6908,10 +6903,10 @@
         <v>4856</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -6919,10 +6914,10 @@
         <v>4857</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6930,10 +6925,10 @@
         <v>4858</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6941,10 +6936,10 @@
         <v>4859</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6952,10 +6947,10 @@
         <v>4860</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6963,10 +6958,10 @@
         <v>4861</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6974,10 +6969,10 @@
         <v>4862</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6985,10 +6980,10 @@
         <v>4863</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6996,10 +6991,10 @@
         <v>4864</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7007,10 +7002,10 @@
         <v>4865</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7018,10 +7013,10 @@
         <v>4866</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7029,10 +7024,10 @@
         <v>4867</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7040,10 +7035,10 @@
         <v>4868</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7051,10 +7046,10 @@
         <v>4869</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7062,10 +7057,10 @@
         <v>4870</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7073,10 +7068,10 @@
         <v>4871</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7084,10 +7079,10 @@
         <v>4872</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7095,10 +7090,10 @@
         <v>4873</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7106,10 +7101,10 @@
         <v>4874</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7117,10 +7112,10 @@
         <v>4875</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7128,10 +7123,10 @@
         <v>4876</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7139,10 +7134,10 @@
         <v>4877</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -7150,10 +7145,10 @@
         <v>4878</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7161,10 +7156,10 @@
         <v>4879</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7172,10 +7167,10 @@
         <v>4880</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7183,10 +7178,10 @@
         <v>4881</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7194,10 +7189,10 @@
         <v>4882</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7205,10 +7200,10 @@
         <v>4883</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7216,10 +7211,10 @@
         <v>4884</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -7227,10 +7222,10 @@
         <v>4885</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -7238,10 +7233,10 @@
         <v>4886</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -7249,10 +7244,10 @@
         <v>4887</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -7260,10 +7255,10 @@
         <v>4888</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7271,10 +7266,10 @@
         <v>4889</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7282,10 +7277,10 @@
         <v>4890</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7293,10 +7288,10 @@
         <v>4891</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7304,10 +7299,10 @@
         <v>4892</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7315,10 +7310,10 @@
         <v>4893</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7326,10 +7321,10 @@
         <v>4894</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7337,10 +7332,10 @@
         <v>4895</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7348,10 +7343,10 @@
         <v>4896</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7359,10 +7354,10 @@
         <v>4897</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7370,10 +7365,10 @@
         <v>4898</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7381,10 +7376,10 @@
         <v>4899</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7392,10 +7387,10 @@
         <v>4900</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7403,10 +7398,10 @@
         <v>4901</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -7414,10 +7409,10 @@
         <v>4902</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -7425,10 +7420,10 @@
         <v>4903</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -7436,10 +7431,10 @@
         <v>4904</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -7447,10 +7442,10 @@
         <v>4905</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7458,10 +7453,10 @@
         <v>4906</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7469,10 +7464,10 @@
         <v>4907</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7480,10 +7475,10 @@
         <v>4908</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7491,10 +7486,10 @@
         <v>4909</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -7502,10 +7497,10 @@
         <v>4910</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -7513,10 +7508,10 @@
         <v>4911</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -7524,10 +7519,10 @@
         <v>4912</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7535,10 +7530,10 @@
         <v>4913</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -7546,10 +7541,10 @@
         <v>4914</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7557,10 +7552,10 @@
         <v>4915</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7568,10 +7563,10 @@
         <v>4916</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7579,10 +7574,10 @@
         <v>4917</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -7590,10 +7585,10 @@
         <v>4918</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -7601,10 +7596,10 @@
         <v>4919</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -7612,10 +7607,10 @@
         <v>4920</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -7623,10 +7618,10 @@
         <v>4921</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -7634,10 +7629,10 @@
         <v>4922</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -7645,10 +7640,10 @@
         <v>4923</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -7656,10 +7651,10 @@
         <v>4924</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -7667,10 +7662,10 @@
         <v>4925</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -7678,10 +7673,10 @@
         <v>4926</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -7689,10 +7684,10 @@
         <v>4927</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7700,10 +7695,10 @@
         <v>4928</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -7711,10 +7706,10 @@
         <v>4929</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -7722,10 +7717,10 @@
         <v>4930</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -7733,10 +7728,10 @@
         <v>4931</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -7744,10 +7739,10 @@
         <v>4932</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -7755,10 +7750,10 @@
         <v>4933</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -7766,10 +7761,10 @@
         <v>4934</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -7777,10 +7772,10 @@
         <v>4935</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -7788,10 +7783,10 @@
         <v>4936</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -7799,10 +7794,10 @@
         <v>4937</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -7810,10 +7805,10 @@
         <v>4938</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -7821,10 +7816,10 @@
         <v>4939</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -7832,10 +7827,10 @@
         <v>4940</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -7843,10 +7838,10 @@
         <v>4941</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -7854,10 +7849,10 @@
         <v>4942</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -7865,10 +7860,10 @@
         <v>4943</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -7876,10 +7871,10 @@
         <v>4944</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -7887,10 +7882,10 @@
         <v>4945</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -7898,10 +7893,10 @@
         <v>4946</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -7909,10 +7904,10 @@
         <v>4947</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -7920,10 +7915,10 @@
         <v>4948</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -7931,10 +7926,10 @@
         <v>4949</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -7942,10 +7937,10 @@
         <v>4950</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -7953,10 +7948,10 @@
         <v>4951</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -7964,10 +7959,10 @@
         <v>4952</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -7975,10 +7970,10 @@
         <v>4953</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -7986,10 +7981,10 @@
         <v>4954</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -7997,10 +7992,10 @@
         <v>4955</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -8008,10 +8003,10 @@
         <v>4956</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -8019,10 +8014,10 @@
         <v>4957</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -8030,10 +8025,10 @@
         <v>4958</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -8041,10 +8036,10 @@
         <v>4959</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -8052,10 +8047,10 @@
         <v>4960</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -8063,10 +8058,10 @@
         <v>4961</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -8074,10 +8069,10 @@
         <v>4962</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -8085,10 +8080,10 @@
         <v>4963</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -8096,10 +8091,10 @@
         <v>4964</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -8107,10 +8102,10 @@
         <v>4965</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -8118,10 +8113,10 @@
         <v>4966</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -8129,10 +8124,10 @@
         <v>4967</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -8140,10 +8135,10 @@
         <v>4968</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -8151,10 +8146,10 @@
         <v>4969</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -8162,10 +8157,10 @@
         <v>4970</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -8173,10 +8168,10 @@
         <v>4971</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -8184,10 +8179,10 @@
         <v>4972</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -8195,10 +8190,10 @@
         <v>4973</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -8206,10 +8201,10 @@
         <v>4974</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -8217,10 +8212,10 @@
         <v>4975</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -8228,10 +8223,10 @@
         <v>4976</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -8239,10 +8234,10 @@
         <v>4977</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -8250,10 +8245,10 @@
         <v>4978</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -8261,10 +8256,10 @@
         <v>4979</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -8272,10 +8267,10 @@
         <v>4980</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -8283,10 +8278,10 @@
         <v>4981</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -8294,10 +8289,10 @@
         <v>4982</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -8305,10 +8300,10 @@
         <v>4983</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -8316,10 +8311,10 @@
         <v>4984</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -8327,10 +8322,10 @@
         <v>4985</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -8338,10 +8333,10 @@
         <v>4986</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -8349,10 +8344,10 @@
         <v>4987</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -8360,10 +8355,10 @@
         <v>4988</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -8371,10 +8366,10 @@
         <v>4989</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -8382,10 +8377,10 @@
         <v>4990</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -8393,10 +8388,10 @@
         <v>4991</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -8404,10 +8399,10 @@
         <v>4992</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -8415,10 +8410,10 @@
         <v>4993</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -8426,10 +8421,10 @@
         <v>4994</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -8437,10 +8432,10 @@
         <v>4995</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -8448,10 +8443,10 @@
         <v>4996</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -8459,10 +8454,10 @@
         <v>4997</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -8470,10 +8465,10 @@
         <v>4998</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -8481,10 +8476,10 @@
         <v>4999</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -8492,10 +8487,10 @@
         <v>5000</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -8503,10 +8498,10 @@
         <v>5001</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -8514,10 +8509,10 @@
         <v>5002</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -8525,10 +8520,10 @@
         <v>5003</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -8536,10 +8531,10 @@
         <v>5004</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -8547,10 +8542,10 @@
         <v>5005</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -8558,10 +8553,10 @@
         <v>5006</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -8569,10 +8564,10 @@
         <v>5007</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -8580,10 +8575,10 @@
         <v>5008</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -8591,10 +8586,10 @@
         <v>5009</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -8602,10 +8597,10 @@
         <v>5010</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -8613,10 +8608,10 @@
         <v>5011</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -8624,10 +8619,10 @@
         <v>5012</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -8635,10 +8630,10 @@
         <v>5013</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -8646,10 +8641,10 @@
         <v>5014</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -8657,10 +8652,10 @@
         <v>5015</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -8668,10 +8663,10 @@
         <v>5016</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -8679,10 +8674,10 @@
         <v>5017</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -8690,10 +8685,10 @@
         <v>5018</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -8701,10 +8696,10 @@
         <v>5019</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -8712,10 +8707,10 @@
         <v>5020</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -8723,10 +8718,10 @@
         <v>5021</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -8734,10 +8729,10 @@
         <v>5022</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -8745,10 +8740,10 @@
         <v>5023</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -8756,10 +8751,10 @@
         <v>5024</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -8767,10 +8762,10 @@
         <v>5025</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -8778,10 +8773,10 @@
         <v>5026</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -8789,10 +8784,10 @@
         <v>5027</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -8800,10 +8795,10 @@
         <v>5028</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -8811,10 +8806,10 @@
         <v>5029</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -8822,10 +8817,10 @@
         <v>5030</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -8833,10 +8828,10 @@
         <v>5031</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -8844,10 +8839,10 @@
         <v>5032</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -8855,10 +8850,10 @@
         <v>5033</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -8866,10 +8861,10 @@
         <v>5034</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -8877,10 +8872,10 @@
         <v>5035</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -8888,10 +8883,10 @@
         <v>5036</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -8899,10 +8894,10 @@
         <v>5037</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -8910,10 +8905,10 @@
         <v>5038</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -8921,10 +8916,10 @@
         <v>5039</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -8932,10 +8927,10 @@
         <v>5040</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -8943,10 +8938,10 @@
         <v>5041</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -8954,10 +8949,10 @@
         <v>5042</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -8965,10 +8960,10 @@
         <v>5043</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -8976,10 +8971,10 @@
         <v>5044</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -8987,10 +8982,10 @@
         <v>5045</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -8998,10 +8993,10 @@
         <v>5046</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -9009,10 +9004,10 @@
         <v>5047</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -9020,10 +9015,10 @@
         <v>5048</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -9031,10 +9026,10 @@
         <v>5049</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -9042,10 +9037,10 @@
         <v>5050</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -9053,10 +9048,10 @@
         <v>5051</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -9064,10 +9059,10 @@
         <v>5052</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -9075,10 +9070,10 @@
         <v>5053</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -9086,10 +9081,10 @@
         <v>5054</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -9097,10 +9092,10 @@
         <v>5055</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -9108,10 +9103,10 @@
         <v>5056</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -9119,10 +9114,10 @@
         <v>5057</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -9130,10 +9125,10 @@
         <v>5058</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -9141,10 +9136,10 @@
         <v>5059</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -9152,10 +9147,10 @@
         <v>5060</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -9163,10 +9158,10 @@
         <v>5061</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -9174,10 +9169,10 @@
         <v>5062</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -9185,10 +9180,10 @@
         <v>5063</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -9196,10 +9191,10 @@
         <v>5064</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -9207,10 +9202,10 @@
         <v>5065</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -9218,10 +9213,10 @@
         <v>5066</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -9229,10 +9224,10 @@
         <v>5067</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -9240,10 +9235,10 @@
         <v>5068</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -9251,10 +9246,10 @@
         <v>5069</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -9262,10 +9257,10 @@
         <v>5070</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -9273,10 +9268,10 @@
         <v>5071</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -9284,10 +9279,10 @@
         <v>5072</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -9295,10 +9290,10 @@
         <v>5073</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -9306,10 +9301,10 @@
         <v>5074</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -9317,10 +9312,10 @@
         <v>5075</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -9328,10 +9323,10 @@
         <v>5076</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -9339,10 +9334,10 @@
         <v>5077</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -9350,10 +9345,10 @@
         <v>5078</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -9361,10 +9356,10 @@
         <v>5079</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -9372,10 +9367,10 @@
         <v>5080</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -9383,10 +9378,10 @@
         <v>5081</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -9394,10 +9389,10 @@
         <v>5082</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -9405,10 +9400,10 @@
         <v>5083</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -9416,10 +9411,10 @@
         <v>5084</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -9427,10 +9422,10 @@
         <v>5085</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -9438,10 +9433,10 @@
         <v>5086</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -9449,10 +9444,10 @@
         <v>5087</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -9460,10 +9455,10 @@
         <v>5088</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/class_data.xlsx
+++ b/class_data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3br7man\Projects\Class Data Project\Class-Data-Summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D20354-B24A-44C0-8363-F6D56A4B5684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54947351-AC7F-4A60-97BC-16F7A3D7F968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="comm_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Class_data" sheetId="1" r:id="rId1"/>
     <sheet name="Gender_table" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">comm_data!$A$1:$E$249</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Class_data!$A$1:$E$249</definedName>
     <definedName name="gender_table">Gender_table!$A$2:$B$241</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1757,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -6592,7 +6592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3FE821-9964-42FE-8211-896A06608E3B}">
   <dimension ref="A1:C260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
